--- a/data/trans_dic/P56$otro-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$otro-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que tiene otro tipo de ayuda cuando tiene dificultades en la actividades básicas</t>
+          <t>Población que, al menos, tiene otro tipo de ayuda cuando tiene dificultades en la actividades básicas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,26</t>
+          <t>0,0; 12,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,04</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,11</t>
+          <t>0,0; 13,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,18</t>
+          <t>0,0; 8,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,03</t>
+          <t>0,0; 9,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,66</t>
+          <t>0,0; 5,5</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1290,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,61</t>
+          <t>0,0; 27,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,11</t>
+          <t>0,0; 22,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,91</t>
+          <t>0,0; 17,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>0,0; 4,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1330,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,01</t>
+          <t>0,0; 5,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,35</t>
+          <t>0,0; 13,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,02</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
     </row>
@@ -1449,17 +1450,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,73</t>
+          <t>0,0; 7,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,59</t>
+          <t>0,0; 6,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,46</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1470,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,73</t>
+          <t>0,0; 7,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,59</t>
+          <t>0,0; 6,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1570,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,67</t>
+          <t>0,0; 6,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,03</t>
+          <t>0,0; 9,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,01</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1590,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,16</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,38</t>
+          <t>0,22; 2,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1610,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,34</t>
+          <t>0,35; 3,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,74</t>
+          <t>0,52; 4,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,05</t>
+          <t>0,31; 1,85</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene otro tipo de ayuda cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1007</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 977</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 983</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 916</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1351</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1977</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2129</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1483</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1103</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1442</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1475</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 854</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2045</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1005</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1649</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1513</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1087</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1621</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1797</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2308</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1641</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1856</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1768</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2287</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1703</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2194</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3307</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4146</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1919</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2436</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 899</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1758</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2151</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4276</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4328</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2505</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1607</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5059</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5736</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 990</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6406</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3810</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4741</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8313</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4235</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2085</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8078</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6103</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3808</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2085</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8078</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6103</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3128</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3258</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5287</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6631</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3571</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8029</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8527</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>548; 5555</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>996; 9617</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1263; 11923</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1082; 6387</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P56$otro-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$otro-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
